--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5</v>
+        <v>276</v>
+      </c>
+      <c r="B1" t="n">
+        <v>239</v>
+      </c>
+      <c r="C1" t="n">
+        <v>236</v>
+      </c>
+      <c r="D1" t="n">
+        <v>253</v>
+      </c>
+      <c r="E1" t="n">
+        <v>157</v>
+      </c>
+      <c r="F1" t="n">
+        <v>308</v>
+      </c>
+      <c r="G1" t="n">
+        <v>155</v>
+      </c>
+      <c r="H1" t="n">
+        <v>79</v>
+      </c>
+      <c r="I1" t="n">
+        <v>232</v>
+      </c>
+      <c r="J1" t="n">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
